--- a/Data.xlsx
+++ b/Data.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Surendhar\eclipse-workspace\BestBuy-E-Commerce-Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D275B097-5B0C-4E5E-94AE-1684447300E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F91B5CA3-3393-4895-BE0E-41203781ED93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{5CB2D494-82B0-4E53-B36C-9127BC7103CF}"/>
+    <workbookView xWindow="750" yWindow="750" windowWidth="20670" windowHeight="11820" xr2:uid="{5CB2D494-82B0-4E53-B36C-9127BC7103CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Username</t>
   </si>
@@ -76,6 +72,39 @@
   </si>
   <si>
     <t>Suren@78963@</t>
+  </si>
+  <si>
+    <t>checkoutLoginProcess</t>
+  </si>
+  <si>
+    <t>suren2696@gmail.com</t>
+  </si>
+  <si>
+    <t>CheckoutAndPaymentProcess</t>
+  </si>
+  <si>
+    <t>paymentInformation</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Palanisamy</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>F Admiralty Dr W</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Middletown</t>
   </si>
 </sst>
 </file>
@@ -470,19 +499,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A0A90E-CDA9-4210-A0BC-4BD863432678}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -565,6 +594,68 @@
       </c>
       <c r="B8" s="3" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -575,8 +666,10 @@
     <hyperlink ref="C3" r:id="rId4" display="surendhar01@gmail.com" xr:uid="{295845AF-95C9-47E0-94C4-5B5302320E08}"/>
     <hyperlink ref="A7" r:id="rId5" xr:uid="{DEFE57A9-F27F-47FB-83C9-06CA1A187390}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{A1213F37-CAD1-4DC6-9B7C-121523923E66}"/>
+    <hyperlink ref="A14" r:id="rId7" xr:uid="{641298AF-1791-471F-85D2-5847DCFD88A7}"/>
+    <hyperlink ref="B14" r:id="rId8" xr:uid="{D0D8EF8C-A536-44E5-AFD7-EDE149142F09}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>